--- a/0咪咕音乐/咪咕音乐sdkv360/咪咕音乐USS_music_sdk_v3.6.0测试用例__全.xlsx
+++ b/0咪咕音乐/咪咕音乐sdkv360/咪咕音乐USS_music_sdk_v3.6.0测试用例__全.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="320"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="320"/>
   </bookViews>
   <sheets>
     <sheet name="用例" sheetId="1" r:id="rId1"/>
@@ -1523,10 +1523,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1592,21 +1592,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1620,7 +1615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1628,14 +1623,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1648,15 +1636,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1671,17 +1680,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1690,21 +1690,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1735,7 +1720,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1774,7 +1774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,7 +1792,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1798,13 +1822,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1816,7 +1852,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1828,19 +1942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1852,109 +1954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2055,17 +2055,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2089,31 +2094,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2142,13 +2123,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2160,148 +2160,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2769,30 +2769,30 @@
   <dimension ref="A1:T165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F167" sqref="F167"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.9666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.3796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1574074074074" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.9166666666667" style="3" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.65" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1416666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.9666666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.6833333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44166666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.21666666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.13333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.64814814814815" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.3796296296296" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1388888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.962962962963" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.6851851851852" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44444444444444" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.21296296296296" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.12962962962963" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.41666666666667" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6916666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6944444444444" style="1" customWidth="1"/>
     <col min="16" max="16" width="6.41666666666667" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.4" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.39814814814815" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2924,7 +2924,7 @@
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="29" customHeight="1" spans="1:19">
+    <row r="5" s="2" customFormat="1" ht="75" spans="1:19">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
